--- a/formats/excel/Formats RHS 18.xlsx
+++ b/formats/excel/Formats RHS 18.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumepressiat/Github/formats_pmeasyr/formats/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumepressiat/Documents/Developpements/Github/formats_pmeasyr/formats/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2547AA2B-7CEA-A84F-9945-04CCC3F39565}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="460" windowWidth="27400" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="400" yWindow="460" windowWidth="27400" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="95">
   <si>
     <t xml:space="preserve">Numéro FINESS d’inscription ePMSI </t>
   </si>
@@ -309,12 +310,15 @@
   </si>
   <si>
     <t>libelle</t>
+  </si>
+  <si>
+    <t>ZAD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -355,6 +359,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -622,11 +629,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1533,6 +1540,17 @@
         <v>92</v>
       </c>
     </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46">
+        <v>182</v>
+      </c>
+      <c r="F46" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
